--- a/_resource/excel/G-关系-玩家属性-(框架维护,请勿修改).xlsx
+++ b/_resource/excel/G-关系-玩家属性-(框架维护,请勿修改).xlsx
@@ -27,7 +27,7 @@
     <author>PCC</author>
   </authors>
   <commentList>
-    <comment ref="S4" authorId="0" shapeId="0">
+    <comment ref="T4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="90">
   <si>
     <t>LuaFile(string)</t>
   </si>
@@ -329,13 +329,21 @@
   </si>
   <si>
     <t>RunParam(string)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否创建</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create(int)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -942,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ13"/>
+  <dimension ref="A1:AK13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N4"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -962,27 +970,27 @@
     <col min="12" max="12" width="26" style="8" customWidth="1"/>
     <col min="13" max="13" width="23.75" style="8" customWidth="1"/>
     <col min="14" max="15" width="18.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.125" style="8" customWidth="1"/>
-    <col min="17" max="18" width="12.875" style="8" customWidth="1"/>
-    <col min="19" max="19" width="17.125" style="8" customWidth="1"/>
-    <col min="20" max="20" width="11" style="8" customWidth="1"/>
-    <col min="21" max="21" width="12.875" style="8" customWidth="1"/>
-    <col min="22" max="22" width="15" style="8" customWidth="1"/>
-    <col min="23" max="23" width="11" style="8" customWidth="1"/>
-    <col min="24" max="24" width="13.75" style="8" customWidth="1"/>
-    <col min="25" max="26" width="17.125" style="8" customWidth="1"/>
-    <col min="27" max="27" width="12.625" style="8" customWidth="1"/>
-    <col min="28" max="28" width="14.875" style="8" customWidth="1"/>
-    <col min="29" max="30" width="11.5" style="8" customWidth="1"/>
-    <col min="31" max="31" width="10.875" style="8" customWidth="1"/>
-    <col min="32" max="32" width="9.375" style="8" customWidth="1"/>
-    <col min="33" max="33" width="17.125" style="8" customWidth="1"/>
-    <col min="34" max="34" width="21.5" style="8" customWidth="1"/>
-    <col min="35" max="35" width="24.875" style="8" customWidth="1"/>
-    <col min="36" max="36" width="28.75" style="8" customWidth="1"/>
+    <col min="16" max="17" width="17.125" style="8" customWidth="1"/>
+    <col min="18" max="19" width="12.875" style="8" customWidth="1"/>
+    <col min="20" max="20" width="17.125" style="8" customWidth="1"/>
+    <col min="21" max="21" width="11" style="8" customWidth="1"/>
+    <col min="22" max="22" width="12.875" style="8" customWidth="1"/>
+    <col min="23" max="23" width="15" style="8" customWidth="1"/>
+    <col min="24" max="24" width="11" style="8" customWidth="1"/>
+    <col min="25" max="25" width="13.75" style="8" customWidth="1"/>
+    <col min="26" max="27" width="17.125" style="8" customWidth="1"/>
+    <col min="28" max="28" width="12.625" style="8" customWidth="1"/>
+    <col min="29" max="29" width="14.875" style="8" customWidth="1"/>
+    <col min="30" max="31" width="11.5" style="8" customWidth="1"/>
+    <col min="32" max="32" width="10.875" style="8" customWidth="1"/>
+    <col min="33" max="33" width="9.375" style="8" customWidth="1"/>
+    <col min="34" max="34" width="17.125" style="8" customWidth="1"/>
+    <col min="35" max="35" width="21.5" style="8" customWidth="1"/>
+    <col min="36" max="36" width="24.875" style="8" customWidth="1"/>
+    <col min="37" max="37" width="28.75" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A1" s="10"/>
       <c r="B1" s="1" t="s">
         <v>84</v>
@@ -1020,9 +1028,10 @@
       <c r="AG1" s="10"/>
       <c r="AH1" s="10"/>
       <c r="AI1" s="10"/>
-      <c r="AJ1" s="1"/>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="1"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
         <v>1</v>
@@ -1066,71 +1075,74 @@
       <c r="O2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q2" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="W2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="X2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="Y2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Z2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="AA2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AB2" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AC2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AD2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AE2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="AE2" s="9" t="s">
+      <c r="AF2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AF2" s="9" t="s">
+      <c r="AG2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AG2" s="9" t="s">
+      <c r="AH2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AH2" s="9" t="s">
+      <c r="AI2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AI2" s="9" t="s">
+      <c r="AJ2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A3" s="11">
         <v>0</v>
       </c>
@@ -1183,13 +1195,13 @@
         <v>3</v>
       </c>
       <c r="R3" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S3" s="11">
         <v>1</v>
       </c>
       <c r="T3" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U3" s="11">
         <v>3</v>
@@ -1201,7 +1213,7 @@
         <v>3</v>
       </c>
       <c r="X3" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y3" s="11">
         <v>1</v>
@@ -1210,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="AA3" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB3" s="11">
         <v>3</v>
@@ -1236,11 +1248,14 @@
       <c r="AI3" s="11">
         <v>3</v>
       </c>
-      <c r="AJ3" s="3">
+      <c r="AJ3" s="11">
+        <v>3</v>
+      </c>
+      <c r="AK3" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
         <v>28</v>
       </c>
@@ -1286,71 +1301,74 @@
       <c r="O4" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="R4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="S4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="T4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="12" t="s">
+      <c r="U4" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="12" t="s">
+      <c r="V4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="V4" s="12" t="s">
+      <c r="W4" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="W4" s="12" t="s">
+      <c r="X4" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="X4" s="12" t="s">
+      <c r="Y4" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="Y4" s="12" t="s">
+      <c r="Z4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Z4" s="12" t="s">
+      <c r="AA4" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AA4" s="12" t="s">
+      <c r="AB4" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="AB4" s="12" t="s">
+      <c r="AC4" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AC4" s="12" t="s">
+      <c r="AD4" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="AD4" s="12" t="s">
+      <c r="AE4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="AE4" s="12" t="s">
+      <c r="AF4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AF4" s="12" t="s">
-        <v>0</v>
-      </c>
       <c r="AG4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="AH4" s="12" t="s">
+      <c r="AI4" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="AI4" s="12" t="s">
+      <c r="AJ4" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="AJ4" s="4" t="s">
+      <c r="AK4" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
         <v>72</v>
       </c>
@@ -1381,7 +1399,7 @@
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
       <c r="P5" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="13">
         <v>0</v>
@@ -1396,10 +1414,10 @@
         <v>0</v>
       </c>
       <c r="U5" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" s="13">
         <v>0</v>
@@ -1428,13 +1446,16 @@
       <c r="AE5" s="13">
         <v>0</v>
       </c>
-      <c r="AF5" s="13"/>
+      <c r="AF5" s="13">
+        <v>0</v>
+      </c>
       <c r="AG5" s="13"/>
       <c r="AH5" s="13"/>
       <c r="AI5" s="13"/>
-      <c r="AJ5" s="5"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="5"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A6" s="13" t="s">
         <v>75</v>
       </c>
@@ -1465,7 +1486,7 @@
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
       <c r="P6" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="13">
         <v>0</v>
@@ -1480,10 +1501,10 @@
         <v>0</v>
       </c>
       <c r="U6" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" s="13">
         <v>0</v>
@@ -1512,13 +1533,16 @@
       <c r="AE6" s="13">
         <v>0</v>
       </c>
-      <c r="AF6" s="13"/>
+      <c r="AF6" s="13">
+        <v>0</v>
+      </c>
       <c r="AG6" s="13"/>
       <c r="AH6" s="13"/>
       <c r="AI6" s="13"/>
-      <c r="AJ6" s="5"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="5"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>59</v>
       </c>
@@ -1543,7 +1567,7 @@
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
       <c r="P7" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="16">
         <v>0</v>
@@ -1558,10 +1582,10 @@
         <v>0</v>
       </c>
       <c r="U7" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="16">
         <v>0</v>
@@ -1590,13 +1614,16 @@
       <c r="AE7" s="16">
         <v>0</v>
       </c>
-      <c r="AF7" s="16"/>
+      <c r="AF7" s="16">
+        <v>0</v>
+      </c>
       <c r="AG7" s="16"/>
       <c r="AH7" s="16"/>
       <c r="AI7" s="16"/>
-      <c r="AJ7" s="7"/>
+      <c r="AJ7" s="16"/>
+      <c r="AK7" s="7"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A8" s="17" t="s">
         <v>62</v>
       </c>
@@ -1625,7 +1652,7 @@
       <c r="N8" s="17"/>
       <c r="O8" s="17"/>
       <c r="P8" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="17">
         <v>0</v>
@@ -1640,19 +1667,21 @@
         <v>0</v>
       </c>
       <c r="U8" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" s="17">
-        <v>0</v>
-      </c>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="W8" s="17">
+        <v>0</v>
+      </c>
+      <c r="X8" s="17"/>
       <c r="Y8" s="17">
         <v>0</v>
       </c>
-      <c r="Z8" s="17"/>
+      <c r="Z8" s="17">
+        <v>0</v>
+      </c>
       <c r="AA8" s="17"/>
       <c r="AB8" s="17"/>
       <c r="AC8" s="17"/>
@@ -1662,9 +1691,10 @@
       <c r="AG8" s="17"/>
       <c r="AH8" s="17"/>
       <c r="AI8" s="17"/>
-      <c r="AJ8" s="7"/>
+      <c r="AJ8" s="17"/>
+      <c r="AK8" s="7"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>78</v>
       </c>
@@ -1689,7 +1719,7 @@
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
       <c r="P9" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="16">
         <v>0</v>
@@ -1704,10 +1734,10 @@
         <v>0</v>
       </c>
       <c r="U9" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" s="16">
         <v>0</v>
@@ -1736,13 +1766,16 @@
       <c r="AE9" s="16">
         <v>0</v>
       </c>
-      <c r="AF9" s="16"/>
+      <c r="AF9" s="16">
+        <v>0</v>
+      </c>
       <c r="AG9" s="16"/>
       <c r="AH9" s="16"/>
       <c r="AI9" s="16"/>
-      <c r="AJ9" s="7"/>
+      <c r="AJ9" s="16"/>
+      <c r="AK9" s="7"/>
     </row>
-    <row r="10" spans="1:36" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14" t="s">
         <v>59</v>
       </c>
@@ -1767,7 +1800,7 @@
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
       <c r="P10" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="14">
         <v>0</v>
@@ -1782,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="U10" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" s="14">
         <v>0</v>
@@ -1814,13 +1847,16 @@
       <c r="AE10" s="14">
         <v>0</v>
       </c>
-      <c r="AF10" s="14"/>
+      <c r="AF10" s="14">
+        <v>0</v>
+      </c>
       <c r="AG10" s="14"/>
       <c r="AH10" s="14"/>
       <c r="AI10" s="14"/>
-      <c r="AJ10" s="6"/>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="6"/>
     </row>
-    <row r="11" spans="1:36" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
         <v>62</v>
       </c>
@@ -1849,7 +1885,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
       <c r="P11" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="15">
         <v>0</v>
@@ -1864,19 +1900,21 @@
         <v>0</v>
       </c>
       <c r="U11" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" s="15">
-        <v>0</v>
-      </c>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="W11" s="15">
+        <v>0</v>
+      </c>
+      <c r="X11" s="15"/>
       <c r="Y11" s="15">
         <v>0</v>
       </c>
-      <c r="Z11" s="15"/>
+      <c r="Z11" s="15">
+        <v>0</v>
+      </c>
       <c r="AA11" s="15"/>
       <c r="AB11" s="15"/>
       <c r="AC11" s="15"/>
@@ -1886,9 +1924,10 @@
       <c r="AG11" s="15"/>
       <c r="AH11" s="15"/>
       <c r="AI11" s="15"/>
-      <c r="AJ11" s="6"/>
+      <c r="AJ11" s="15"/>
+      <c r="AK11" s="6"/>
     </row>
-    <row r="12" spans="1:36" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14" t="s">
         <v>79</v>
       </c>
@@ -1913,7 +1952,7 @@
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
       <c r="P12" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="14">
         <v>0</v>
@@ -1928,10 +1967,10 @@
         <v>0</v>
       </c>
       <c r="U12" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12" s="14">
         <v>0</v>
@@ -1960,13 +1999,16 @@
       <c r="AE12" s="14">
         <v>0</v>
       </c>
-      <c r="AF12" s="14"/>
+      <c r="AF12" s="14">
+        <v>0</v>
+      </c>
       <c r="AG12" s="14"/>
       <c r="AH12" s="14"/>
       <c r="AI12" s="14"/>
-      <c r="AJ12" s="6"/>
+      <c r="AJ12" s="14"/>
+      <c r="AK12" s="6"/>
     </row>
-    <row r="13" spans="1:36" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14" t="s">
         <v>80</v>
       </c>
@@ -1991,7 +2033,7 @@
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
       <c r="P13" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="14">
         <v>0</v>
@@ -2006,10 +2048,10 @@
         <v>0</v>
       </c>
       <c r="U13" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13" s="14">
         <v>0</v>
@@ -2038,15 +2080,19 @@
       <c r="AE13" s="14">
         <v>0</v>
       </c>
-      <c r="AF13" s="14"/>
+      <c r="AF13" s="14">
+        <v>0</v>
+      </c>
       <c r="AG13" s="14"/>
       <c r="AH13" s="14"/>
       <c r="AI13" s="14"/>
-      <c r="AJ13" s="6"/>
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/_resource/excel/G-关系-玩家属性-(框架维护,请勿修改).xlsx
+++ b/_resource/excel/G-关系-玩家属性-(框架维护,请勿修改).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Project\Fighter\trunk\Resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Frame\trunk\_resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterate="1" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>LuaFile(string)</t>
   </si>
@@ -332,18 +332,26 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>是否创建</t>
+    <t>Client(int)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Create(int)</t>
+    <t>客户端属性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield(int)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否屏蔽创建</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -950,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK13"/>
+  <dimension ref="A1:AL13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -982,15 +990,15 @@
     <col min="28" max="28" width="12.625" style="8" customWidth="1"/>
     <col min="29" max="29" width="14.875" style="8" customWidth="1"/>
     <col min="30" max="31" width="11.5" style="8" customWidth="1"/>
-    <col min="32" max="32" width="10.875" style="8" customWidth="1"/>
-    <col min="33" max="33" width="9.375" style="8" customWidth="1"/>
-    <col min="34" max="34" width="17.125" style="8" customWidth="1"/>
-    <col min="35" max="35" width="21.5" style="8" customWidth="1"/>
-    <col min="36" max="36" width="24.875" style="8" customWidth="1"/>
-    <col min="37" max="37" width="28.75" style="8" customWidth="1"/>
+    <col min="32" max="33" width="10.875" style="8" customWidth="1"/>
+    <col min="34" max="34" width="9.375" style="8" customWidth="1"/>
+    <col min="35" max="35" width="17.125" style="8" customWidth="1"/>
+    <col min="36" max="36" width="21.5" style="8" customWidth="1"/>
+    <col min="37" max="37" width="24.875" style="8" customWidth="1"/>
+    <col min="38" max="38" width="28.75" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A1" s="10"/>
       <c r="B1" s="1" t="s">
         <v>84</v>
@@ -1029,9 +1037,10 @@
       <c r="AH1" s="10"/>
       <c r="AI1" s="10"/>
       <c r="AJ1" s="10"/>
-      <c r="AK1" s="1"/>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="1"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
         <v>1</v>
@@ -1076,7 +1085,7 @@
         <v>11</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>68</v>
@@ -1126,23 +1135,26 @@
       <c r="AF2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AG2" s="9" t="s">
+      <c r="AG2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AH2" s="9" t="s">
+      <c r="AI2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AI2" s="9" t="s">
+      <c r="AJ2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AJ2" s="9" t="s">
+      <c r="AK2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A3" s="11">
         <v>0</v>
       </c>
@@ -1251,11 +1263,14 @@
       <c r="AJ3" s="11">
         <v>3</v>
       </c>
-      <c r="AK3" s="3">
+      <c r="AK3" s="11">
+        <v>3</v>
+      </c>
+      <c r="AL3" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
         <v>28</v>
       </c>
@@ -1302,7 +1317,7 @@
         <v>87</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>39</v>
@@ -1352,23 +1367,26 @@
       <c r="AF4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AG4" s="12" t="s">
-        <v>0</v>
+      <c r="AG4" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="AH4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="AI4" s="12" t="s">
+      <c r="AJ4" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="AJ4" s="12" t="s">
+      <c r="AK4" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="AK4" s="4" t="s">
+      <c r="AL4" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
         <v>72</v>
       </c>
@@ -1399,7 +1417,7 @@
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
       <c r="P5" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="13">
         <v>0</v>
@@ -1449,13 +1467,16 @@
       <c r="AF5" s="13">
         <v>0</v>
       </c>
-      <c r="AG5" s="13"/>
+      <c r="AG5" s="13">
+        <v>0</v>
+      </c>
       <c r="AH5" s="13"/>
       <c r="AI5" s="13"/>
       <c r="AJ5" s="13"/>
-      <c r="AK5" s="5"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="5"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A6" s="13" t="s">
         <v>75</v>
       </c>
@@ -1486,7 +1507,7 @@
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
       <c r="P6" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="13">
         <v>0</v>
@@ -1536,13 +1557,16 @@
       <c r="AF6" s="13">
         <v>0</v>
       </c>
-      <c r="AG6" s="13"/>
+      <c r="AG6" s="13">
+        <v>0</v>
+      </c>
       <c r="AH6" s="13"/>
       <c r="AI6" s="13"/>
       <c r="AJ6" s="13"/>
-      <c r="AK6" s="5"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="5"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>59</v>
       </c>
@@ -1567,7 +1591,7 @@
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
       <c r="P7" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="16">
         <v>0</v>
@@ -1617,13 +1641,16 @@
       <c r="AF7" s="16">
         <v>0</v>
       </c>
-      <c r="AG7" s="16"/>
+      <c r="AG7" s="16">
+        <v>0</v>
+      </c>
       <c r="AH7" s="16"/>
       <c r="AI7" s="16"/>
       <c r="AJ7" s="16"/>
-      <c r="AK7" s="7"/>
+      <c r="AK7" s="16"/>
+      <c r="AL7" s="7"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A8" s="17" t="s">
         <v>62</v>
       </c>
@@ -1652,7 +1679,7 @@
       <c r="N8" s="17"/>
       <c r="O8" s="17"/>
       <c r="P8" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="17">
         <v>0</v>
@@ -1682,19 +1709,32 @@
       <c r="Z8" s="17">
         <v>0</v>
       </c>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="17"/>
+      <c r="AA8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="17">
+        <v>0</v>
+      </c>
       <c r="AD8" s="17"/>
-      <c r="AE8" s="17"/>
-      <c r="AF8" s="17"/>
-      <c r="AG8" s="17"/>
+      <c r="AE8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="17">
+        <v>0</v>
+      </c>
       <c r="AH8" s="17"/>
       <c r="AI8" s="17"/>
       <c r="AJ8" s="17"/>
-      <c r="AK8" s="7"/>
+      <c r="AK8" s="17"/>
+      <c r="AL8" s="7"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>78</v>
       </c>
@@ -1719,7 +1759,7 @@
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
       <c r="P9" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="16">
         <v>0</v>
@@ -1769,13 +1809,16 @@
       <c r="AF9" s="16">
         <v>0</v>
       </c>
-      <c r="AG9" s="16"/>
+      <c r="AG9" s="16">
+        <v>0</v>
+      </c>
       <c r="AH9" s="16"/>
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
-      <c r="AK9" s="7"/>
+      <c r="AK9" s="16"/>
+      <c r="AL9" s="7"/>
     </row>
-    <row r="10" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14" t="s">
         <v>59</v>
       </c>
@@ -1800,7 +1843,7 @@
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
       <c r="P10" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="14">
         <v>0</v>
@@ -1850,13 +1893,16 @@
       <c r="AF10" s="14">
         <v>0</v>
       </c>
-      <c r="AG10" s="14"/>
+      <c r="AG10" s="14">
+        <v>0</v>
+      </c>
       <c r="AH10" s="14"/>
       <c r="AI10" s="14"/>
       <c r="AJ10" s="14"/>
-      <c r="AK10" s="6"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="6"/>
     </row>
-    <row r="11" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
         <v>62</v>
       </c>
@@ -1885,7 +1931,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
       <c r="P11" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="15">
         <v>0</v>
@@ -1915,19 +1961,34 @@
       <c r="Z11" s="15">
         <v>0</v>
       </c>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="15"/>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="15"/>
-      <c r="AF11" s="15"/>
-      <c r="AG11" s="15"/>
+      <c r="AA11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="15">
+        <v>0</v>
+      </c>
       <c r="AH11" s="15"/>
       <c r="AI11" s="15"/>
       <c r="AJ11" s="15"/>
-      <c r="AK11" s="6"/>
+      <c r="AK11" s="15"/>
+      <c r="AL11" s="6"/>
     </row>
-    <row r="12" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14" t="s">
         <v>79</v>
       </c>
@@ -1952,7 +2013,7 @@
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
       <c r="P12" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="14">
         <v>0</v>
@@ -2002,13 +2063,16 @@
       <c r="AF12" s="14">
         <v>0</v>
       </c>
-      <c r="AG12" s="14"/>
+      <c r="AG12" s="14">
+        <v>0</v>
+      </c>
       <c r="AH12" s="14"/>
       <c r="AI12" s="14"/>
       <c r="AJ12" s="14"/>
-      <c r="AK12" s="6"/>
+      <c r="AK12" s="14"/>
+      <c r="AL12" s="6"/>
     </row>
-    <row r="13" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14" t="s">
         <v>80</v>
       </c>
@@ -2033,7 +2097,7 @@
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
       <c r="P13" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="14">
         <v>0</v>
@@ -2083,11 +2147,14 @@
       <c r="AF13" s="14">
         <v>0</v>
       </c>
-      <c r="AG13" s="14"/>
+      <c r="AG13" s="14">
+        <v>0</v>
+      </c>
       <c r="AH13" s="14"/>
       <c r="AI13" s="14"/>
       <c r="AJ13" s="14"/>
-      <c r="AK13" s="6"/>
+      <c r="AK13" s="14"/>
+      <c r="AL13" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/_resource/excel/G-关系-玩家属性-(框架维护,请勿修改).xlsx
+++ b/_resource/excel/G-关系-玩家属性-(框架维护,请勿修改).xlsx
@@ -275,9 +275,6 @@
     <t>LogicName(string)</t>
   </si>
   <si>
-    <t>Group(int)</t>
-  </si>
-  <si>
     <t>好友列表</t>
   </si>
   <si>
@@ -345,6 +342,10 @@
   </si>
   <si>
     <t>是否屏蔽创建</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Team(int)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -960,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1001,7 +1002,7 @@
     <row r="1" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A1" s="10"/>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -1079,13 +1080,13 @@
         <v>10</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>68</v>
@@ -1121,7 +1122,7 @@
         <v>21</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC2" s="9" t="s">
         <v>22</v>
@@ -1136,7 +1137,7 @@
         <v>25</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH2" s="9" t="s">
         <v>26</v>
@@ -1311,13 +1312,13 @@
         <v>38</v>
       </c>
       <c r="N4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="O4" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="P4" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>39</v>
@@ -1353,13 +1354,13 @@
         <v>49</v>
       </c>
       <c r="AB4" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AC4" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AD4" s="12" t="s">
-        <v>71</v>
+      <c r="AD4" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="AE4" s="12" t="s">
         <v>51</v>
@@ -1368,7 +1369,7 @@
         <v>52</v>
       </c>
       <c r="AG4" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH4" s="12" t="s">
         <v>0</v>
@@ -1388,20 +1389,20 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>60</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
         <v>64</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>59</v>
@@ -1478,20 +1479,20 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A6" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>60</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13" t="s">
         <v>64</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>59</v>
@@ -1571,7 +1572,7 @@
         <v>59</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>59</v>
@@ -1655,7 +1656,7 @@
         <v>62</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>56</v>
@@ -1736,10 +1737,10 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>65</v>
@@ -1823,7 +1824,7 @@
         <v>59</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>59</v>
@@ -1907,7 +1908,7 @@
         <v>62</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>56</v>
@@ -1990,10 +1991,10 @@
     </row>
     <row r="12" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>65</v>
@@ -2074,13 +2075,13 @@
     </row>
     <row r="13" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>80</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>81</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">

--- a/_resource/excel/G-关系-玩家属性-(框架维护,请勿修改).xlsx
+++ b/_resource/excel/G-关系-玩家属性-(框架维护,请勿修改).xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="94">
   <si>
     <t>LuaFile(string)</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>同步客户端</t>
-  </si>
-  <si>
-    <t>延迟同步客户端</t>
   </si>
   <si>
     <t>同步查询者</t>
@@ -346,6 +343,18 @@
   </si>
   <si>
     <t>Team(int)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟同步时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求同步</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request(int)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -959,10 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL13"/>
+  <dimension ref="A1:AM13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD4" sqref="AD4"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -985,24 +994,25 @@
     <col min="21" max="21" width="11" style="8" customWidth="1"/>
     <col min="22" max="22" width="12.875" style="8" customWidth="1"/>
     <col min="23" max="23" width="15" style="8" customWidth="1"/>
-    <col min="24" max="24" width="11" style="8" customWidth="1"/>
-    <col min="25" max="25" width="13.75" style="8" customWidth="1"/>
-    <col min="26" max="27" width="17.125" style="8" customWidth="1"/>
-    <col min="28" max="28" width="12.625" style="8" customWidth="1"/>
-    <col min="29" max="29" width="14.875" style="8" customWidth="1"/>
-    <col min="30" max="31" width="11.5" style="8" customWidth="1"/>
-    <col min="32" max="33" width="10.875" style="8" customWidth="1"/>
-    <col min="34" max="34" width="9.375" style="8" customWidth="1"/>
-    <col min="35" max="35" width="17.125" style="8" customWidth="1"/>
-    <col min="36" max="36" width="21.5" style="8" customWidth="1"/>
-    <col min="37" max="37" width="24.875" style="8" customWidth="1"/>
-    <col min="38" max="38" width="28.75" style="8" customWidth="1"/>
+    <col min="24" max="24" width="13.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11" style="8" customWidth="1"/>
+    <col min="26" max="26" width="13.75" style="8" customWidth="1"/>
+    <col min="27" max="28" width="17.125" style="8" customWidth="1"/>
+    <col min="29" max="29" width="12.625" style="8" customWidth="1"/>
+    <col min="30" max="30" width="14.875" style="8" customWidth="1"/>
+    <col min="31" max="32" width="11.5" style="8" customWidth="1"/>
+    <col min="33" max="34" width="10.875" style="8" customWidth="1"/>
+    <col min="35" max="35" width="9.375" style="8" customWidth="1"/>
+    <col min="36" max="36" width="17.125" style="8" customWidth="1"/>
+    <col min="37" max="37" width="21.5" style="8" customWidth="1"/>
+    <col min="38" max="38" width="24.875" style="8" customWidth="1"/>
+    <col min="39" max="39" width="28.75" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A1" s="10"/>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -1039,9 +1049,10 @@
       <c r="AI1" s="10"/>
       <c r="AJ1" s="10"/>
       <c r="AK1" s="10"/>
-      <c r="AL1" s="1"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="1"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
         <v>1</v>
@@ -1050,7 +1061,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>3</v>
@@ -1065,7 +1076,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>7</v>
@@ -1080,16 +1091,16 @@
         <v>10</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>12</v>
@@ -1106,56 +1117,59 @@
       <c r="V2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="W2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="Z2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="AA2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="AB2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AC2" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AE2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AF2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AE2" s="9" t="s">
+      <c r="AG2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="AF2" s="9" t="s">
+      <c r="AH2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AG2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH2" s="9" t="s">
+      <c r="AJ2" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="AI2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ2" s="9" t="s">
-        <v>21</v>
       </c>
       <c r="AK2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="AL2" s="2" t="s">
-        <v>20</v>
+      <c r="AL2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A3" s="11">
         <v>0</v>
       </c>
@@ -1229,7 +1243,7 @@
         <v>3</v>
       </c>
       <c r="Y3" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z3" s="11">
         <v>1</v>
@@ -1238,7 +1252,7 @@
         <v>1</v>
       </c>
       <c r="AB3" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC3" s="11">
         <v>3</v>
@@ -1267,148 +1281,154 @@
       <c r="AK3" s="11">
         <v>3</v>
       </c>
-      <c r="AL3" s="3">
+      <c r="AL3" s="11">
+        <v>3</v>
+      </c>
+      <c r="AM3" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="D4" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="E4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="F4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="W4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC4" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL4" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM4" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A5" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="U4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="V4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="W4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="X4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y4" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB4" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG4" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ4" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK4" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL4" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
+      <c r="B5" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>71</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>72</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
@@ -1471,34 +1491,37 @@
       <c r="AG5" s="13">
         <v>0</v>
       </c>
-      <c r="AH5" s="13"/>
+      <c r="AH5" s="13">
+        <v>0</v>
+      </c>
       <c r="AI5" s="13"/>
       <c r="AJ5" s="13"/>
       <c r="AK5" s="13"/>
-      <c r="AL5" s="5"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="5"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A6" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>74</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>75</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
@@ -1561,25 +1584,28 @@
       <c r="AG6" s="13">
         <v>0</v>
       </c>
-      <c r="AH6" s="13"/>
+      <c r="AH6" s="13">
+        <v>0</v>
+      </c>
       <c r="AI6" s="13"/>
       <c r="AJ6" s="13"/>
       <c r="AK6" s="13"/>
-      <c r="AL6" s="5"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="5"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -1645,31 +1671,34 @@
       <c r="AG7" s="16">
         <v>0</v>
       </c>
-      <c r="AH7" s="16"/>
+      <c r="AH7" s="16">
+        <v>0</v>
+      </c>
       <c r="AI7" s="16"/>
       <c r="AJ7" s="16"/>
       <c r="AK7" s="16"/>
-      <c r="AL7" s="7"/>
+      <c r="AL7" s="16"/>
+      <c r="AM7" s="7"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A8" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="G8" s="17" t="s">
         <v>58</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>59</v>
       </c>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
@@ -1703,7 +1732,9 @@
       <c r="W8" s="17">
         <v>0</v>
       </c>
-      <c r="X8" s="17"/>
+      <c r="X8" s="17">
+        <v>0</v>
+      </c>
       <c r="Y8" s="17">
         <v>0</v>
       </c>
@@ -1719,35 +1750,38 @@
       <c r="AC8" s="17">
         <v>0</v>
       </c>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="17">
-        <v>0</v>
-      </c>
+      <c r="AD8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="17"/>
       <c r="AF8" s="17">
         <v>0</v>
       </c>
       <c r="AG8" s="17">
         <v>0</v>
       </c>
-      <c r="AH8" s="17"/>
+      <c r="AH8" s="17">
+        <v>0</v>
+      </c>
       <c r="AI8" s="17"/>
       <c r="AJ8" s="17"/>
       <c r="AK8" s="17"/>
-      <c r="AL8" s="7"/>
+      <c r="AL8" s="17"/>
+      <c r="AM8" s="7"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -1813,25 +1847,28 @@
       <c r="AG9" s="16">
         <v>0</v>
       </c>
-      <c r="AH9" s="16"/>
+      <c r="AH9" s="16">
+        <v>0</v>
+      </c>
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
       <c r="AK9" s="16"/>
-      <c r="AL9" s="7"/>
+      <c r="AL9" s="16"/>
+      <c r="AM9" s="7"/>
     </row>
-    <row r="10" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:39" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
@@ -1897,31 +1934,34 @@
       <c r="AG10" s="14">
         <v>0</v>
       </c>
-      <c r="AH10" s="14"/>
+      <c r="AH10" s="14">
+        <v>0</v>
+      </c>
       <c r="AI10" s="14"/>
       <c r="AJ10" s="14"/>
       <c r="AK10" s="14"/>
-      <c r="AL10" s="6"/>
+      <c r="AL10" s="14"/>
+      <c r="AM10" s="6"/>
     </row>
-    <row r="11" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:39" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="G11" s="15" t="s">
         <v>58</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>59</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
@@ -1956,9 +1996,7 @@
         <v>0</v>
       </c>
       <c r="X11" s="15"/>
-      <c r="Y11" s="15">
-        <v>0</v>
-      </c>
+      <c r="Y11" s="15"/>
       <c r="Z11" s="15">
         <v>0</v>
       </c>
@@ -1983,25 +2021,28 @@
       <c r="AG11" s="15">
         <v>0</v>
       </c>
-      <c r="AH11" s="15"/>
+      <c r="AH11" s="15">
+        <v>0</v>
+      </c>
       <c r="AI11" s="15"/>
       <c r="AJ11" s="15"/>
       <c r="AK11" s="15"/>
-      <c r="AL11" s="6"/>
+      <c r="AL11" s="15"/>
+      <c r="AM11" s="6"/>
     </row>
-    <row r="12" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:39" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
@@ -2067,25 +2108,28 @@
       <c r="AG12" s="14">
         <v>0</v>
       </c>
-      <c r="AH12" s="14"/>
+      <c r="AH12" s="14">
+        <v>0</v>
+      </c>
       <c r="AI12" s="14"/>
       <c r="AJ12" s="14"/>
       <c r="AK12" s="14"/>
-      <c r="AL12" s="6"/>
+      <c r="AL12" s="14"/>
+      <c r="AM12" s="6"/>
     </row>
-    <row r="13" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:39" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>79</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>80</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
@@ -2151,11 +2195,14 @@
       <c r="AG13" s="14">
         <v>0</v>
       </c>
-      <c r="AH13" s="14"/>
+      <c r="AH13" s="14">
+        <v>0</v>
+      </c>
       <c r="AI13" s="14"/>
       <c r="AJ13" s="14"/>
       <c r="AK13" s="14"/>
-      <c r="AL13" s="6"/>
+      <c r="AL13" s="14"/>
+      <c r="AM13" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
